--- a/data/trans_orig/cron_mort_index-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/cron_mort_index-Provincia-trans_orig.xlsx
@@ -669,7 +669,7 @@
         <v>0.07507190762952312</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.223304071979234</v>
+        <v>0.2233040719792341</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.04031714689515416</v>
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02100735071749332</v>
+        <v>0.02335853337718621</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.05434865256367043</v>
+        <v>0.05438957791720422</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.04671690954365033</v>
+        <v>0.04998250835118462</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1760466266727965</v>
+        <v>0.1826392656935295</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01983885571645305</v>
+        <v>0.02135811279717545</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.062222111441905</v>
+        <v>0.05976897373858888</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.0496476272429214</v>
+        <v>0.05021049183375854</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1398518889862545</v>
+        <v>0.138480150298368</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.0255596757320234</v>
+        <v>0.02709743913458383</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.06527340435383218</v>
+        <v>0.06276019333717327</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.05558988416292094</v>
+        <v>0.05585857481532115</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1713954678817093</v>
+        <v>0.1681200942982428</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.07083923859101944</v>
+        <v>0.06848615243374204</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1237949346324921</v>
+        <v>0.124925463226769</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1114514491725331</v>
+        <v>0.1132344475610356</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2765681532814463</v>
+        <v>0.276320877989386</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.06956776325045352</v>
+        <v>0.07677461085428852</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.138169215192111</v>
+        <v>0.1314682349371385</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1099583699679371</v>
+        <v>0.1167088880983591</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2130118565119527</v>
+        <v>0.2065981389371322</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.0591127254980668</v>
+        <v>0.06056833679354226</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1192560836736127</v>
+        <v>0.1138324157338232</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1000094881129959</v>
+        <v>0.09993711366527083</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2280969332775462</v>
+        <v>0.2303829715756864</v>
       </c>
     </row>
     <row r="7">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03359536975060429</v>
+        <v>0.0338955422058647</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.0555968901870059</v>
+        <v>0.0555842388137101</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.06061340591990423</v>
+        <v>0.0609377063331879</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1757255376437107</v>
+        <v>0.173969992893674</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.06418489074829828</v>
+        <v>0.06430034022802458</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.09629713048662876</v>
+        <v>0.09655416141915277</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.09209793650159255</v>
+        <v>0.08752390276131977</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1669766943573758</v>
+        <v>0.1748929555819791</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.05494022821758246</v>
+        <v>0.05468968905602715</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.08089054021379401</v>
+        <v>0.08148470362441747</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.08201544796318465</v>
+        <v>0.08272297670355672</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1829963867516969</v>
+        <v>0.1818223037591234</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.07561049195198863</v>
+        <v>0.07736525875828204</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1078897531531604</v>
+        <v>0.1092527017538534</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1098712010296961</v>
+        <v>0.1105132656304511</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2695729968592791</v>
+        <v>0.2676303933141952</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1182891408018572</v>
+        <v>0.1159586953237955</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1568495736672817</v>
+        <v>0.1559435814978707</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1485876180135125</v>
+        <v>0.1461979358888224</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2364219445082736</v>
+        <v>0.2442254131194186</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.08902711421936225</v>
+        <v>0.08608936115744721</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1193805198220302</v>
+        <v>0.124728282967953</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1210938741118109</v>
+        <v>0.1215010686388473</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2399269694810702</v>
+        <v>0.2392438519725951</v>
       </c>
     </row>
     <row r="10">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.03568316070145754</v>
+        <v>0.03370811105201307</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.08290867270860583</v>
+        <v>0.08486527579816502</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.03690275440954398</v>
+        <v>0.04211887806264088</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.22192047130699</v>
+        <v>0.2231007702642513</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.04506994079467081</v>
+        <v>0.04573260558620904</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.0851376911212933</v>
+        <v>0.08712397286458892</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.07459341365137544</v>
+        <v>0.0809066074790608</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2188676635622289</v>
+        <v>0.2206159767157247</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.04710233515972476</v>
+        <v>0.04624969767660026</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.09713652112727925</v>
+        <v>0.09545262888630449</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.06571091895117322</v>
+        <v>0.06698094999448613</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2313945197095746</v>
+        <v>0.2316613535041591</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.08591187091805207</v>
+        <v>0.08519475751066118</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1722680584584714</v>
+        <v>0.1720196100724775</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.08919009698572081</v>
+        <v>0.09646021773356409</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3341328696947668</v>
+        <v>0.3390668528807753</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.09837213935968762</v>
+        <v>0.1016172147553419</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1628440042362952</v>
+        <v>0.1633578748203114</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1504919448692167</v>
+        <v>0.1533985663455464</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3098144554411489</v>
+        <v>0.3089020592388629</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.08480380553000873</v>
+        <v>0.08239055836345879</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1505972337375491</v>
+        <v>0.1510453809416132</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1112566210989443</v>
+        <v>0.1106271454183328</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3096262553470608</v>
+        <v>0.3040779732302787</v>
       </c>
     </row>
     <row r="13">
@@ -1077,7 +1077,7 @@
         <v>0.1354961015234997</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.2462719708844079</v>
+        <v>0.246271970884408</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.05450441877101057</v>
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02809128251074473</v>
+        <v>0.02734837748067111</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.04626868416816279</v>
+        <v>0.04811032818867545</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1013390293179532</v>
+        <v>0.1035001786139973</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1890783887242065</v>
+        <v>0.1841733225811122</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.03395127606346893</v>
+        <v>0.0351821722482558</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.08287770071865307</v>
+        <v>0.08321854717980277</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.06689311217288321</v>
+        <v>0.06669531125778215</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1649392427448117</v>
+        <v>0.1661700308645181</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.03619659305395699</v>
+        <v>0.036132537468627</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.071634290626516</v>
+        <v>0.07226048569576408</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.09250384580184762</v>
+        <v>0.0956264707701036</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.18973923309759</v>
+        <v>0.1913293065586191</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.07165395655167545</v>
+        <v>0.06915836875088228</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1025538328763398</v>
+        <v>0.09930431760114544</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1765041946965688</v>
+        <v>0.1761902997883823</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3135155977882103</v>
+        <v>0.3075539133866196</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.08016370451456728</v>
+        <v>0.07977163954270745</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1551446625426811</v>
+        <v>0.1532097128952369</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1325929532668312</v>
+        <v>0.1340539702358369</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2463103012352412</v>
+        <v>0.2459204761828318</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.06577338572810444</v>
+        <v>0.06605222066469925</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1184242347517731</v>
+        <v>0.1185097378177604</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1415563530494435</v>
+        <v>0.1403071745549963</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2618108219031022</v>
+        <v>0.261058394606339</v>
       </c>
     </row>
     <row r="16">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.03038248990503969</v>
+        <v>0.03038007265550592</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.07768672662141864</v>
+        <v>0.07739923951414568</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.04598082639220656</v>
+        <v>0.04424827974319868</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1413262931841457</v>
+        <v>0.1377846545083579</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.05874722459170852</v>
+        <v>0.06229911732110652</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.101939232295777</v>
+        <v>0.101688179442999</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.05832603324753888</v>
+        <v>0.05913151587841543</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2121832650506262</v>
+        <v>0.210607947564537</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.05321302706069659</v>
+        <v>0.05297463673247351</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1004664402430041</v>
+        <v>0.1022475672081851</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.06139918199302127</v>
+        <v>0.06072962431666674</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1928932082695792</v>
+        <v>0.1916733390273386</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.0893167544254001</v>
+        <v>0.09173975083656405</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1801279216415635</v>
+        <v>0.1782299462055587</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1201070552119434</v>
+        <v>0.1192545351977191</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.255027035185084</v>
+        <v>0.24836466208798</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1455122931822729</v>
+        <v>0.1498844378624801</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1973879762222594</v>
+        <v>0.1945638125321084</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1408541755161254</v>
+        <v>0.1387939836284719</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.308664937269233</v>
+        <v>0.3116084870538703</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1110464047271859</v>
+        <v>0.104225003996077</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1673333108730133</v>
+        <v>0.1666254579317974</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1176528650634406</v>
+        <v>0.1174132416200394</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2625436966793397</v>
+        <v>0.2622545483563334</v>
       </c>
     </row>
     <row r="19">
@@ -1361,7 +1361,7 @@
         <v>0.07566770907885735</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.2715955631439949</v>
+        <v>0.2715955631439948</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.04604169582107982</v>
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.02907780634230447</v>
+        <v>0.02800990739839684</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.0598312739040495</v>
+        <v>0.05910198276499334</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.0461700116892211</v>
+        <v>0.04350205212261529</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2733834658461213</v>
+        <v>0.276616295201972</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.02240345563009214</v>
+        <v>0.02199596921894727</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.07867398571381162</v>
+        <v>0.07859868231340025</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.04761441999279058</v>
+        <v>0.04835427433330395</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.2285445779589419</v>
+        <v>0.2268200056516883</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.03135469422903941</v>
+        <v>0.03043076635120967</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.07629118270417379</v>
+        <v>0.08018309077775648</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.05257052981916876</v>
+        <v>0.05435407545361674</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.2624821858792144</v>
+        <v>0.2598585148404908</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.08477620408786167</v>
+        <v>0.07882399671611773</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1304551941613763</v>
+        <v>0.1331181372402522</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.107056403556826</v>
+        <v>0.1084216046033149</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.3965447055419364</v>
+        <v>0.3992093029671632</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.07159110614254621</v>
+        <v>0.07309551042281916</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1520758197552285</v>
+        <v>0.1545715940086874</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1127450721274929</v>
+        <v>0.1171171583045471</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.3285660103273306</v>
+        <v>0.3253314137655504</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.0666756747079179</v>
+        <v>0.06548632190961821</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.128341870271312</v>
+        <v>0.1299309522696463</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.09885450775032507</v>
+        <v>0.09874441629521809</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.3424666041897035</v>
+        <v>0.3414276433174189</v>
       </c>
     </row>
     <row r="22">
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.04624416567090699</v>
+        <v>0.04785567161826654</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.06882281337395309</v>
+        <v>0.06719600415970084</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.09455606831525872</v>
+        <v>0.0977015568064403</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2198727210846247</v>
+        <v>0.2155394114921867</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.05606026819673156</v>
+        <v>0.05755878097307446</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.08759770543951452</v>
+        <v>0.08751905497255996</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.08539225011242677</v>
+        <v>0.08440164865025268</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.2028543147160025</v>
+        <v>0.204806577542585</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.05730043404127334</v>
+        <v>0.05811422245906288</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.08498084127789979</v>
+        <v>0.08420217946690715</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.09791637818399442</v>
+        <v>0.09693650002229495</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.2212536089703102</v>
+        <v>0.2199136153917429</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.08568843796694361</v>
+        <v>0.08607908857961398</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1145919340345032</v>
+        <v>0.1157329133210957</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1467440379316972</v>
+        <v>0.1499739356526288</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3080880945558864</v>
+        <v>0.3068610801784206</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.0983604849839525</v>
+        <v>0.09630196611325488</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1362821043846089</v>
+        <v>0.1402726708948446</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1397986292270584</v>
+        <v>0.137720183387425</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2664194436843187</v>
+        <v>0.2699889672998629</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.08664261427524032</v>
+        <v>0.08664796439142564</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.1196065482776143</v>
+        <v>0.1203598314124232</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.134977527550165</v>
+        <v>0.1352837960761875</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.2733504991608618</v>
+        <v>0.2757900086046327</v>
       </c>
     </row>
     <row r="25">
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.05053305243796396</v>
+        <v>0.05017802755513708</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.05560644835994946</v>
+        <v>0.05514788733054096</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.07994358993669928</v>
+        <v>0.08165424181084005</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.1740449499630465</v>
+        <v>0.1703270580732247</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.04919168153912187</v>
+        <v>0.04875541260562942</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.05874898273691048</v>
+        <v>0.05854260618255193</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.08728484794216305</v>
+        <v>0.09006951354940521</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.1585126680635222</v>
+        <v>0.1597447831146515</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.05492873888795323</v>
+        <v>0.05418246366246009</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.06071060018573957</v>
+        <v>0.06065350580240012</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.09144960303002488</v>
+        <v>0.09109703778936117</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.1727931231415532</v>
+        <v>0.1727353059291496</v>
       </c>
     </row>
     <row r="27">
@@ -1700,40 +1700,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.08599521240224017</v>
+        <v>0.08595735077429134</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.09476906800308951</v>
+        <v>0.09637130454144847</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1259041647715822</v>
+        <v>0.1281522157204672</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.2386562072503984</v>
+        <v>0.2370663248328225</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.08619538488883645</v>
+        <v>0.08540511172358919</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.09508155178682011</v>
+        <v>0.09595444982034863</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.1373361088727241</v>
+        <v>0.1401209511940305</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.2115644576218922</v>
+        <v>0.2134610881071989</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.08130043320647516</v>
+        <v>0.08005983518088333</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.0898241030157481</v>
+        <v>0.08875325627713811</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.1244208272794422</v>
+        <v>0.1233921734498257</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.2152069918959827</v>
+        <v>0.2179965207723552</v>
       </c>
     </row>
     <row r="28">
@@ -1792,40 +1792,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.04904478669066011</v>
+        <v>0.04884733477686531</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.07660757706608323</v>
+        <v>0.07679564364788954</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.08654030466274976</v>
+        <v>0.0857434680808874</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.2205677762729599</v>
+        <v>0.2227739271765649</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.05892199514737954</v>
+        <v>0.06008963272503545</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.09619067461747376</v>
+        <v>0.0965725770797459</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.09249591746338053</v>
+        <v>0.09338883792017091</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.2028131998001422</v>
+        <v>0.2025390825080697</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.05675342425149913</v>
+        <v>0.05686898820639158</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.08860417124352402</v>
+        <v>0.08889674709437215</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.09271961205209815</v>
+        <v>0.09262115326143899</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.2156385981678157</v>
+        <v>0.2153935790137562</v>
       </c>
     </row>
     <row r="30">
@@ -1836,40 +1836,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.06412182870453942</v>
+        <v>0.06453295157741136</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.09771095664670978</v>
+        <v>0.09746103483366696</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.1060914027953148</v>
+        <v>0.1062353596302747</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.2559635143130682</v>
+        <v>0.2592991360402918</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.07662068985245554</v>
+        <v>0.0770563981645089</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.1175757551067996</v>
+        <v>0.1174180754453334</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.1149168225085058</v>
+        <v>0.1161703062368887</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.2304312176231643</v>
+        <v>0.228378720489897</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.06864164931140564</v>
+        <v>0.06825822408767634</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.1045377762291543</v>
+        <v>0.1043714504703653</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.107863571010583</v>
+        <v>0.1081512767018242</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.2370563236516227</v>
+        <v>0.2373963716863298</v>
       </c>
     </row>
     <row r="31">
